--- a/realme/July/All Details/28.07.2021/realme Bank Statement July-2021.xlsx
+++ b/realme/July/All Details/28.07.2021/realme Bank Statement July-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="July 2021" sheetId="7" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>28.07.2021</t>
-  </si>
-  <si>
-    <t>Jilani Mobile</t>
   </si>
   <si>
     <t>Date: 28.07.2021</t>
@@ -2471,6 +2468,24 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2498,12 +2513,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2514,18 +2523,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4417,73 +4414,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="254" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
-      <c r="M1" s="248"/>
-      <c r="N1" s="248"/>
-      <c r="O1" s="248"/>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="248"/>
-      <c r="S1" s="248"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="254"/>
+      <c r="O1" s="254"/>
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="254"/>
+      <c r="S1" s="254"/>
     </row>
     <row r="2" spans="1:26" s="133" customFormat="1" ht="18">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="255" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="255"/>
     </row>
     <row r="3" spans="1:26" s="134" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="256" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="251"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="252"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="257"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="258"/>
       <c r="U3" s="58"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -4492,58 +4489,58 @@
       <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" s="136" customFormat="1">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="259" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="255" t="s">
+      <c r="B4" s="261" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="257" t="s">
+      <c r="C4" s="248" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="257" t="s">
+      <c r="D4" s="248" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="257" t="s">
+      <c r="E4" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="257" t="s">
+      <c r="F4" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="257" t="s">
+      <c r="G4" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="257" t="s">
+      <c r="H4" s="248" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="257" t="s">
+      <c r="I4" s="248" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="257" t="s">
+      <c r="J4" s="248" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="257" t="s">
+      <c r="K4" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="257" t="s">
+      <c r="L4" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="257" t="s">
+      <c r="M4" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="257" t="s">
+      <c r="N4" s="248" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="263" t="s">
+      <c r="O4" s="250" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="265" t="s">
+      <c r="P4" s="252" t="s">
         <v>94</v>
       </c>
-      <c r="Q4" s="261" t="s">
+      <c r="Q4" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="259" t="s">
+      <c r="R4" s="263" t="s">
         <v>43</v>
       </c>
       <c r="S4" s="135" t="s">
@@ -4556,24 +4553,24 @@
       <c r="Y4" s="138"/>
     </row>
     <row r="5" spans="1:26" s="136" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="254"/>
-      <c r="B5" s="256"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="258"/>
-      <c r="M5" s="258"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="264"/>
-      <c r="P5" s="266"/>
-      <c r="Q5" s="262"/>
-      <c r="R5" s="260"/>
+      <c r="A5" s="260"/>
+      <c r="B5" s="262"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="249"/>
+      <c r="K5" s="249"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="249"/>
+      <c r="O5" s="251"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="266"/>
+      <c r="R5" s="264"/>
       <c r="S5" s="140" t="s">
         <v>44</v>
       </c>
@@ -7746,11 +7743,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7767,6 +7759,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7779,8 +7776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI246"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9833,12 +9830,12 @@
       <c r="A31" s="52"/>
       <c r="B31" s="53"/>
       <c r="C31" s="53">
-        <v>-310640</v>
+        <v>-107190</v>
       </c>
       <c r="D31" s="53"/>
       <c r="E31" s="53">
         <f t="shared" si="0"/>
-        <v>-310640</v>
+        <v>-107190</v>
       </c>
       <c r="F31" s="53"/>
       <c r="G31" s="70"/>
@@ -9975,7 +9972,7 @@
       </c>
       <c r="C33" s="53">
         <f>SUM(C5:C32)</f>
-        <v>-310640</v>
+        <v>-107190</v>
       </c>
       <c r="D33" s="53">
         <f>SUM(D5:D32)</f>
@@ -9983,11 +9980,11 @@
       </c>
       <c r="E33" s="53">
         <f>SUM(E5:E32)</f>
-        <v>-310640</v>
+        <v>-107190</v>
       </c>
       <c r="F33" s="53">
         <f>B33-E33</f>
-        <v>310640</v>
+        <v>107190</v>
       </c>
       <c r="G33" s="70"/>
       <c r="H33" s="198"/>
@@ -10657,16 +10654,10 @@
       <c r="BI42" s="191"/>
     </row>
     <row r="43" spans="1:61">
-      <c r="A43" s="99" t="s">
-        <v>109</v>
-      </c>
+      <c r="A43" s="99"/>
       <c r="B43" s="49"/>
-      <c r="C43" s="53">
-        <v>203450</v>
-      </c>
-      <c r="D43" s="49" t="s">
-        <v>108</v>
-      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="58"/>
       <c r="F43" s="279" t="s">
         <v>25</v>
@@ -10729,7 +10720,7 @@
     </row>
     <row r="44" spans="1:61">
       <c r="A44" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" s="195"/>
       <c r="C44" s="203">
@@ -15221,7 +15212,7 @@
       <c r="B113" s="269"/>
       <c r="C113" s="110">
         <f>SUM(C37:C112)</f>
-        <v>310640</v>
+        <v>107190</v>
       </c>
       <c r="D113" s="111"/>
       <c r="F113" s="103"/>
@@ -15356,7 +15347,7 @@
       <c r="B115" s="271"/>
       <c r="C115" s="115">
         <f>C113+L136</f>
-        <v>310640</v>
+        <v>107190</v>
       </c>
       <c r="D115" s="116"/>
       <c r="F115" s="98"/>
@@ -17932,7 +17923,7 @@
   </sheetPr>
   <dimension ref="A1:AC224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -17976,7 +17967,7 @@
     </row>
     <row r="3" spans="1:29" ht="23.25">
       <c r="A3" s="286" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="287"/>
       <c r="C3" s="287"/>
